--- a/管脚.xlsx
+++ b/管脚.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>A0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,18 @@
   </si>
   <si>
     <t>KEY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管脚号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际引脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,166 +581,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:L17"/>
+  <dimension ref="B5:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="N11:O11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="0.75" customWidth="1"/>
-    <col min="10" max="10" width="0.5" customWidth="1"/>
-    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="6" max="6" width="0.75" customWidth="1"/>
+    <col min="9" max="9" width="0.5" customWidth="1"/>
+    <col min="10" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="12">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="10"/>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="K8" s="12"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="D9" s="12">
         <v>0</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="K9" s="12"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D10" s="11"/>
-      <c r="E10" s="12" t="s">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="11"/>
+      <c r="C10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="5" t="s">
+      <c r="J10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="12">
         <v>9</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D11" s="12" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="C11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="D11" s="12">
         <v>2</v>
       </c>
+      <c r="E11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>10</v>
+      </c>
+      <c r="K11" s="12">
+        <v>8</v>
       </c>
       <c r="L11" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="12" t="s">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="C12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="D12" s="12">
         <v>3</v>
       </c>
+      <c r="E12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="12">
         <v>12</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="11"/>
-      <c r="E13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="7" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="12">
         <v>4</v>
       </c>
+      <c r="E13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>13</v>
+      </c>
+      <c r="K13" s="12">
+        <v>7</v>
       </c>
       <c r="L13" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7" t="s">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="11"/>
+      <c r="C14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="12">
         <v>5</v>
       </c>
+      <c r="E14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>11</v>
+      </c>
+      <c r="K14" s="12">
+        <v>6</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="K15" s="9" t="s">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J15" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="K16" s="9" t="s">
+      <c r="K15" s="12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="J16" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I17" s="1"/>
+      <c r="K16" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>